--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex03_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex03_end.xlsx
@@ -808,7 +808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Strange-Looking Tourist"]   Don't blame me. That's right, it's all your fault. Just how many singers were sacrificed for your so-called "rap empire"...
+    <t xml:space="preserve">[name="Strange-Looking Tourist"]   Don't blame me. That's right, it's all your fault. Just how many singers were sacrificed for your so-called 'rap empire'...
 </t>
   </si>
   <si>
@@ -820,7 +820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Emperor"]   You think I'd forget who you are just because you decided to roll around in the sewers? Will pointing your weapon at these youngsters satisfy you, "Songster?"
+    <t xml:space="preserve">[name="Emperor"]   You think I'd forget who you are just because you decided to roll around in the sewers? Will pointing your weapon at these youngsters satisfy you, 'Songster?'
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Emperor"]   If I wasn’t such a juicy target for you, how many rising stars would you have continued to “eliminate” just for not suiting your tastes?
+    <t xml:space="preserve">[name="Emperor"]   If I wasn’t such a juicy target for you, how many rising stars would you have continued to 'eliminate' just for not suiting your tastes?
 </t>
   </si>
   <si>
@@ -876,7 +876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Emperor"]   My past is more expansive than this sea of falsity; so where are these "enemies" that await my majesty?
+    <t xml:space="preserve">[name="Emperor"]   My past is more expansive than this sea of falsity; so where are these 'enemies' that await my majesty?
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sora"]   Tex- err, I mean, "Sora," that's… because you stayed in the hotel reading books the whole time…
+    <t xml:space="preserve">[name="Sora"]   Tex- err, I mean, 'Sora,' that's… because you stayed in the hotel reading books the whole time…
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex03_end.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_ex03_end.xlsx
@@ -828,11 +828,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Emperor"]   If I wasn’t such a juicy target for you, how many rising stars would you have continued to 'eliminate' just for not suiting your tastes?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Emperor"]   How long did you think you’d get away with spitting on the entirety of Columbia while stuffing your bathtub full of money?
+    <t xml:space="preserve">[name="Emperor"]   If I wasn't such a juicy target for you, how many rising stars would you have continued to 'eliminate' just for not suiting your tastes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Emperor"]   How long did you think you'd get away with spitting on the entirety of Columbia while stuffing your bathtub full of money?
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sora"]   Tex- err, I mean, 'Sora,' that's… because you stayed in the hotel reading books the whole time…
+    <t xml:space="preserve">[name="Sora"]   Tex- err, I mean, 'Sora,' that's... because you stayed in the hotel reading books the whole time...
 </t>
   </si>
   <si>
